--- a/cloud-offering-survey/quantum-cloud-offering-survey.xlsx
+++ b/cloud-offering-survey/quantum-cloud-offering-survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="1" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="1" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wederbn\Desktop\sequenc-methodology\cloud-offering-survey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wederbn\Desktop\Coding\sequenc-methodology\cloud-offering-survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F9EB0B-2232-4BD6-ACD8-5FF5A31B7848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D6F533-5C37-4547-A6AF-6586207BA324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="3" activeTab="7" xr2:uid="{D121D116-7B37-4D74-8A2D-2DBD7A45734C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{D121D116-7B37-4D74-8A2D-2DBD7A45734C}"/>
   </bookViews>
   <sheets>
     <sheet name="1-Google" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6579" uniqueCount="2241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6578" uniqueCount="2240">
   <si>
     <t>https://www.ibm.com/topics/quantum-computing</t>
   </si>
@@ -6607,9 +6607,6 @@
   </si>
   <si>
     <t>application</t>
-  </si>
-  <si>
-    <t>uses google cloud - TODO: final check if included</t>
   </si>
   <si>
     <t>Account creation does not work at the moment</t>
@@ -39020,8 +39017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CDE4B4-3112-425A-8BF0-52802E359FBE}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39063,7 +39060,7 @@
         <v>2189</v>
       </c>
       <c r="I1" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="J1" t="s">
         <v>2188</v>
@@ -39089,9 +39086,6 @@
         <v>2183</v>
       </c>
       <c r="C3" s="15"/>
-      <c r="J3" t="s">
-        <v>2191</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -39420,7 +39414,7 @@
         <v>2183</v>
       </c>
       <c r="F30" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -39574,7 +39568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F23DBC2-7996-4164-97BB-8F2FE113168B}">
   <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -39610,13 +39604,13 @@
         <v>2113</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>2087</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>2112</v>
@@ -39625,55 +39619,55 @@
         <v>2088</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="K1" s="19" t="s">
         <v>2089</v>
       </c>
       <c r="L1" s="21" t="s">
+        <v>2194</v>
+      </c>
+      <c r="M1" s="22" t="s">
         <v>2195</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>2196</v>
       </c>
       <c r="N1" s="19" t="s">
         <v>2160</v>
       </c>
       <c r="O1" s="21" t="s">
+        <v>2196</v>
+      </c>
+      <c r="P1" s="22" t="s">
         <v>2197</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>2198</v>
       </c>
       <c r="Q1" s="19" t="s">
         <v>2159</v>
       </c>
       <c r="R1" s="21" t="s">
+        <v>2198</v>
+      </c>
+      <c r="S1" s="22" t="s">
         <v>2199</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>2200</v>
       </c>
       <c r="T1" s="19" t="s">
         <v>2168</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="V1" s="22" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="W1" s="19" t="s">
         <v>2169</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -39714,13 +39708,13 @@
         <v>2109</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="Q3" t="s">
         <v>2109</v>
       </c>
       <c r="S3" s="25" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="T3" t="s">
         <v>2109</v>
@@ -39729,7 +39723,7 @@
         <v>2109</v>
       </c>
       <c r="Y3" s="28" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -39767,13 +39761,13 @@
         <v>2117</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="N4" t="s">
         <v>2115</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="Q4" t="s">
         <v>2115</v>
@@ -39785,10 +39779,10 @@
         <v>2109</v>
       </c>
       <c r="U4" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="V4" s="25" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="W4" t="s">
         <v>2115</v>
@@ -39806,7 +39800,7 @@
         <v>2109</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>2109</v>
@@ -39837,7 +39831,7 @@
         <v>2109</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>2115</v>
@@ -39850,10 +39844,10 @@
         <v>2109</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="V5" s="26" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="W5" s="8" t="s">
         <v>2115</v>
@@ -39880,7 +39874,7 @@
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="29" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>2109</v>
@@ -39904,19 +39898,19 @@
         <v>2109</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="Q7" s="8" t="s">
         <v>2115</v>
       </c>
       <c r="S7" s="26" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="T7" s="8" t="s">
         <v>2109</v>
       </c>
       <c r="V7" s="26" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="W7" s="8" t="s">
         <v>2115</v>
@@ -40049,22 +40043,22 @@
         <v>2109</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="Q12" t="s">
         <v>2109</v>
       </c>
       <c r="R12" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="T12" t="s">
         <v>2109</v>
       </c>
       <c r="V12" s="25" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="W12" t="s">
         <v>2115</v>
@@ -40127,10 +40121,10 @@
         <v>2115</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="W13" s="8" t="s">
         <v>2115</v>
@@ -40263,7 +40257,7 @@
         <v>2109</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="T18" t="s">
         <v>2115</v>
@@ -40321,19 +40315,19 @@
         <v>2109</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="T19" s="8" t="s">
         <v>2109</v>
       </c>
       <c r="V19" s="26" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="W19" s="8" t="s">
         <v>2109</v>
       </c>
       <c r="Y19" s="9" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="20" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -40361,7 +40355,7 @@
         <v>2109</v>
       </c>
       <c r="D22" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>2109</v>
@@ -40391,28 +40385,28 @@
         <v>2115</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="Q22" t="s">
         <v>2115</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="T22" t="s">
         <v>2115</v>
       </c>
       <c r="V22" s="25" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="W22" t="s">
         <v>2115</v>
       </c>
       <c r="X22" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="Y22" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -40423,7 +40417,7 @@
         <v>2115</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>2109</v>
@@ -40450,28 +40444,28 @@
         <v>2109</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="Q23" t="s">
         <v>2109</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="T23" t="s">
         <v>2109</v>
       </c>
       <c r="V23" s="25" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="W23" t="s">
         <v>2115</v>
       </c>
       <c r="X23" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="Y23" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="24" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -40482,7 +40476,7 @@
         <v>2115</v>
       </c>
       <c r="D24" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>2115</v>
@@ -40506,31 +40500,31 @@
         <v>2115</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="Q24" s="8" t="s">
         <v>2115</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="T24" s="8" t="s">
         <v>2109</v>
       </c>
       <c r="U24" s="8" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="V24" s="29" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="W24" s="8" t="s">
         <v>2115</v>
       </c>
       <c r="X24" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="Y24" s="9" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="25" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -40551,7 +40545,7 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="2" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>2115</v>
@@ -40582,35 +40576,35 @@
         <v>2115</v>
       </c>
       <c r="O26" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="Q26" t="s">
         <v>2115</v>
       </c>
       <c r="R26"/>
       <c r="S26" s="27" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="T26" t="s">
         <v>2109</v>
       </c>
       <c r="U26" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="V26" s="25" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="W26" t="s">
         <v>2109</v>
       </c>
       <c r="X26" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="Y26" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
